--- a/SampleProject/src/main/resources/ExcelReader/Book1.xlsx
+++ b/SampleProject/src/main/resources/ExcelReader/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sanoob/Documents/workspace1/SampleProject/src/main/resources/excelreader/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sanoob/git/SampleProject/SampleProject/src/main/resources/ExcelReader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F720CF78-5E60-2042-BF2E-73D555A133FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34AFBBA-5DC8-3F42-BDF8-2B19591B6FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="15860" activeTab="1" xr2:uid="{BDB7C9B0-3AE4-314D-8992-00909A331F50}"/>
+    <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="15860" xr2:uid="{BDB7C9B0-3AE4-314D-8992-00909A331F50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3340805-D201-1D4D-B1AD-4CAA466D7D70}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -449,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D69C48-1AA0-2848-BB7A-CE60A0531CFA}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
